--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail13 Features.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,28 +2485,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2527,115 +2525,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2652,72 +2640,66 @@
         <v>2.183235785951395e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1606108340079848</v>
+        <v>6.769654985020195e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.408277051569714</v>
+        <v>2.541238946901952e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.769654985020195e-07</v>
+        <v>-0.04230988970983874</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.541238946901952e-06</v>
+        <v>0.06618920121924908</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04230988970983874</v>
+        <v>0.006161707239012448</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.06618920121924908</v>
+        <v>1.924958161567571</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.006161707239012448</v>
+        <v>2.504085900406402</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.939760924340656</v>
+        <v>5.482278693994672</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.504085900406402</v>
+        <v>3.322316984550465e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.482278693994672</v>
+        <v>4774156919.881353</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.322316984550465e-17</v>
+        <v>2.547200992914717e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4774156919.881353</v>
+        <v>757.2415670406969</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.547200992914717e-08</v>
+        <v>9.708267409522407e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>757.2415670406969</v>
+        <v>8.464501738060383</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.708267409522407e-05</v>
+        <v>1.184230901338204</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.464501738060383</v>
+        <v>0.006955759014527914</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.184230901338204</v>
+        <v>4.238924570762242</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006955759014527914</v>
+        <v>0.9635322384903403</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.238924570762242</v>
+        <v>1.026197632129222</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9635322384903403</v>
+        <v>63</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.026197632129222</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.89378005766071</v>
       </c>
     </row>
@@ -2732,72 +2714,66 @@
         <v>2.20529768136528e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1108836439317225</v>
+        <v>6.785971323131798e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.42159434983093</v>
+        <v>2.531354790201847e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.785971323131798e-07</v>
+        <v>-0.04730231835001647</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.531354790201847e-06</v>
+        <v>0.04587246154240203</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04730231835001647</v>
+        <v>0.004338112077915106</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.04587246154240203</v>
+        <v>1.922410736616486</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.004338112077915106</v>
+        <v>2.746250813545333</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.937830896133577</v>
+        <v>4.557807514632861</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.746250813545333</v>
+        <v>2.906070092610608e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.557807514632861</v>
+        <v>5226252089.050611</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.906070092610608e-17</v>
+        <v>2.326111767958919e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>5226252089.050611</v>
+        <v>793.7555835977914</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.326111767958919e-08</v>
+        <v>0.0001167930747603554</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>793.7555835977914</v>
+        <v>10.49715311423905</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001167930747603554</v>
+        <v>1.147095522226817</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.49715311423905</v>
+        <v>0.01286945501153708</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.147095522226817</v>
+        <v>3.913177670063764</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01286945501153708</v>
+        <v>0.963247992662744</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.913177670063764</v>
+        <v>1.080789221025028</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.963247992662744</v>
+        <v>44</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.080789221025028</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.600620541752205</v>
       </c>
     </row>
@@ -2812,72 +2788,66 @@
         <v>2.211210343258045e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.06959312036686402</v>
+        <v>6.79838353591165e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.433312820143134</v>
+        <v>2.520536277867797e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.79838353591165e-07</v>
+        <v>-0.05028619258337997</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.520536277867797e-06</v>
+        <v>0.03493902713737421</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05028619258337997</v>
+        <v>0.003748897191450748</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.03493902713737421</v>
+        <v>1.919362501373666</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.003748897191450748</v>
+        <v>2.715197291567731</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.932642001123382</v>
+        <v>5.068736795100972</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.715197291567731</v>
+        <v>3.802723141075867e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.068736795100972</v>
+        <v>3970487881.02772</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.802723141075867e-17</v>
+        <v>3.059282282188072e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3970487881.02772</v>
+        <v>599.49070954542</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.059282282188072e-08</v>
+        <v>0.0001287250344138673</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>599.49070954542</v>
+        <v>10.74336508175669</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001287250344138673</v>
+        <v>1.227342206929416</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.74336508175669</v>
+        <v>0.01485742973450118</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.227342206929416</v>
+        <v>3.836754369297419</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01485742973450118</v>
+        <v>0.9638564740706927</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.836754369297419</v>
+        <v>1.22032532643086</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9638564740706927</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.22032532643086</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.569944555684804</v>
       </c>
     </row>
@@ -2892,72 +2862,66 @@
         <v>2.205540322661153e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.0369854457394241</v>
+        <v>6.815352260647856e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.452369589979737</v>
+        <v>2.509261419055424e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.815352260647856e-07</v>
+        <v>-0.05149323310044056</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.509261419055424e-06</v>
+        <v>0.03234720905636594</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05149323310044056</v>
+        <v>0.003698235705624249</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03234720905636594</v>
+        <v>1.916266328671095</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003698235705624249</v>
+        <v>2.91084333960872</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.928446005368663</v>
+        <v>4.828866941541604</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.91084333960872</v>
+        <v>4.189900508453642e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.828866941541604</v>
+        <v>3588480936.157997</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.189900508453642e-17</v>
+        <v>3.378634375899251e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3588480936.157997</v>
+        <v>539.5416767613367</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.378634375899251e-08</v>
+        <v>0.0001072255347419126</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>539.5416767613367</v>
+        <v>8.471631643425152</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001072255347419126</v>
+        <v>1.395809028343751</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.471631643425152</v>
+        <v>0.00769542036885712</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.395809028343751</v>
+        <v>4.024474082890658</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00769542036885712</v>
+        <v>0.9621485994852622</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.024474082890658</v>
+        <v>1.183029450700142</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9621485994852622</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.183029450700142</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.223364492351797</v>
       </c>
     </row>
@@ -3334,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.333300511482356</v>
+        <v>1.371738808210433</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.22737839323924</v>
@@ -3423,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.352506457821653</v>
+        <v>1.391058281642073</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.115846016043826</v>
@@ -3512,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.376248247378669</v>
+        <v>1.416928852369366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.069127916986107</v>
@@ -3601,7 +3565,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.394808212717566</v>
+        <v>1.434819723538093</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.13217153986693</v>
@@ -3690,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.41889988853534</v>
+        <v>1.454237485624318</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.124969615429585</v>
@@ -3779,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408773085554889</v>
+        <v>1.440461972597403</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.194114599465086</v>
@@ -3868,7 +3832,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.415766530689666</v>
+        <v>1.447843205208764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.989144645996996</v>
@@ -3957,7 +3921,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.404898820794068</v>
+        <v>1.435875539999319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.009459178308345</v>
@@ -4046,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.441116376244704</v>
+        <v>1.469505606893963</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.905798032950543</v>
@@ -4135,7 +4099,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575836284746858</v>
+        <v>1.599313430188659</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.986086539798006</v>
@@ -4224,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.550358250668177</v>
+        <v>1.570229338702771</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.200340773804787</v>
@@ -4313,7 +4277,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.540700371258684</v>
+        <v>1.561361634249863</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.127504091985124</v>
@@ -4402,7 +4366,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.526514309975834</v>
+        <v>1.544380236796824</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.175340262755087</v>
@@ -4491,7 +4455,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510718686284373</v>
+        <v>1.524893835635625</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.030994137496068</v>
@@ -4580,7 +4544,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.581919834251023</v>
+        <v>1.585925242276963</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.874822743006016</v>
@@ -4669,7 +4633,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720670457137409</v>
+        <v>1.70466561451285</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.339153017997134</v>
@@ -4758,7 +4722,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.690249787516412</v>
+        <v>1.670888527113766</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.372135302225806</v>
@@ -4847,7 +4811,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.624762846375555</v>
+        <v>1.620092918032451</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.383128696648894</v>
@@ -4936,7 +4900,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625744985846699</v>
+        <v>1.620522114532212</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.296766951660421</v>
@@ -5025,7 +4989,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626113910057243</v>
+        <v>1.62645088138055</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.425054106384826</v>
@@ -5114,7 +5078,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.634623340324164</v>
+        <v>1.634364274654018</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.383262579322605</v>
@@ -5203,7 +5167,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629011760618161</v>
+        <v>1.625514300893486</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.358942679107488</v>
@@ -5292,7 +5256,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.58764555089934</v>
+        <v>1.580568837673879</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.398265576808629</v>
@@ -5381,7 +5345,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591692107782023</v>
+        <v>1.588877673877008</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.372243563359915</v>
@@ -5470,7 +5434,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601085252220789</v>
+        <v>1.598192919158517</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.298903080224811</v>
@@ -5559,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.636975162294398</v>
+        <v>1.634296953729959</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.345878368271992</v>
@@ -5648,7 +5612,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641151815627064</v>
+        <v>1.634967433100302</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.468465844219546</v>
@@ -5737,7 +5701,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.637619598871213</v>
+        <v>1.629794344801148</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.368809109843805</v>
@@ -5826,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638739204630472</v>
+        <v>1.631329792524561</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.35019021056604</v>
@@ -5915,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.600879383410405</v>
+        <v>1.594254319325767</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.416986288664999</v>
@@ -6004,7 +5968,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592806909796497</v>
+        <v>1.584862321089695</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.445530735761212</v>
@@ -6093,7 +6057,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644619783928163</v>
+        <v>1.630511243402785</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.045827247174866</v>
@@ -6182,7 +6146,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672229014423183</v>
+        <v>1.650535072018983</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.58383778104896</v>
@@ -6271,7 +6235,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.671742221836322</v>
+        <v>1.646640781304414</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.393766693549727</v>
@@ -6360,7 +6324,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.638776448432659</v>
+        <v>1.615932896562329</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.479518278662421</v>
@@ -6449,7 +6413,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.640168601968604</v>
+        <v>1.614876089233384</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.498057518279341</v>
@@ -6538,7 +6502,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5959297814763</v>
+        <v>1.583301451963135</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.242462539294234</v>
@@ -6627,7 +6591,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.641551953102793</v>
+        <v>1.63158659515822</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.12233653184666</v>
@@ -6716,7 +6680,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643115658467837</v>
+        <v>1.635727296820744</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.335126482867623</v>
@@ -6805,7 +6769,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642505361827307</v>
+        <v>1.633596661328441</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.270557287025564</v>
@@ -6894,7 +6858,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.636181860171263</v>
+        <v>1.622223787141494</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.201674860095508</v>
@@ -6983,7 +6947,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.629981695246451</v>
+        <v>1.615773114215954</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.267368396552196</v>
@@ -7072,7 +7036,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.635086697776093</v>
+        <v>1.620445209384106</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.281131905987881</v>
@@ -7161,7 +7125,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.644983643561101</v>
+        <v>1.627773378889665</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.168971219541961</v>
@@ -7250,7 +7214,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.659187965969072</v>
+        <v>1.63944099108032</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.186226902284393</v>
@@ -7339,7 +7303,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.60853857711972</v>
+        <v>1.599516599512728</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.261209014041696</v>
@@ -7428,7 +7392,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610069714161974</v>
+        <v>1.602925113733024</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.310867103233241</v>
@@ -7517,7 +7481,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594542631475764</v>
+        <v>1.586878143887737</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.277089148624246</v>
@@ -7606,7 +7570,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592394649495049</v>
+        <v>1.589844896857409</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.279348341398745</v>
@@ -7892,7 +7856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.318787847847762</v>
+        <v>1.315867402778235</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.123497718939344</v>
@@ -7981,7 +7945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.332920100490191</v>
+        <v>1.327424212004092</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.094947443917518</v>
@@ -8070,7 +8034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.354681985861532</v>
+        <v>1.346824435242587</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.003368838150458</v>
@@ -8159,7 +8123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.361927285606267</v>
+        <v>1.357004182965842</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.007472939691692</v>
@@ -8248,7 +8212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.380134691305049</v>
+        <v>1.376143390003836</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.982077217724172</v>
@@ -8337,7 +8301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.384076606356705</v>
+        <v>1.380263004460457</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.083705700865346</v>
@@ -8426,7 +8390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.369326432733116</v>
+        <v>1.365109089218409</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.035868264974618</v>
@@ -8515,7 +8479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.36622910842428</v>
+        <v>1.363053380252289</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.012314144923149</v>
@@ -8604,7 +8568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.378454191869261</v>
+        <v>1.372919976281502</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.156226331458006</v>
@@ -8693,7 +8657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.466242314414732</v>
+        <v>1.458832987276671</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.078156520653356</v>
@@ -8782,7 +8746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.467918906455715</v>
+        <v>1.455873130552792</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.239261137314903</v>
@@ -8871,7 +8835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475596786229713</v>
+        <v>1.466162062701451</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.321882548496427</v>
@@ -8960,7 +8924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.471880205149493</v>
+        <v>1.462306487676064</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.207643535143084</v>
@@ -9049,7 +9013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46572949115487</v>
+        <v>1.454952082743962</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.254323533137511</v>
@@ -9138,7 +9102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498535280613511</v>
+        <v>1.48436222424989</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.18869507929269</v>
@@ -9227,7 +9191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.566590803937457</v>
+        <v>1.545678912100645</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.763216353451535</v>
@@ -9316,7 +9280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.568937372359334</v>
+        <v>1.544788784245747</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.453591770748825</v>
@@ -9405,7 +9369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.526953922264086</v>
+        <v>1.505389602988791</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.459494137951648</v>
@@ -9494,7 +9458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.532896321872964</v>
+        <v>1.508605870536779</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.254404491849669</v>
@@ -9583,7 +9547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.528387143555134</v>
+        <v>1.509310105076947</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.428908869606095</v>
@@ -9672,7 +9636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.537686128888265</v>
+        <v>1.519692492510132</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.565999883248477</v>
@@ -9761,7 +9725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556646846286486</v>
+        <v>1.534934576622674</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.417528642604126</v>
@@ -9850,7 +9814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.544874822361681</v>
+        <v>1.516860873115635</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.309518503812175</v>
@@ -9939,7 +9903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.556493758029392</v>
+        <v>1.520339764655076</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.411425543522345</v>
@@ -10028,7 +9992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.555571333244132</v>
+        <v>1.515502468247242</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.337655101699238</v>
@@ -10117,7 +10081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568951405448526</v>
+        <v>1.526819911098778</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.251245662260808</v>
@@ -10206,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575431510080806</v>
+        <v>1.531433210675091</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.346862462057295</v>
@@ -10295,7 +10259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585233261056083</v>
+        <v>1.536175655164195</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.307335036075665</v>
@@ -10384,7 +10348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584223083916513</v>
+        <v>1.540367423230901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.306934267185941</v>
@@ -10473,7 +10437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.578062805970165</v>
+        <v>1.533828349983258</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.409373920997909</v>
@@ -10562,7 +10526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579053282233819</v>
+        <v>1.538077052878236</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.438510930910281</v>
@@ -10651,7 +10615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603644304335912</v>
+        <v>1.558360238847607</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.137137348207812</v>
@@ -10740,7 +10704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.62856099722801</v>
+        <v>1.580842071406652</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.150464719579703</v>
@@ -10829,7 +10793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.630316238912658</v>
+        <v>1.58228532234611</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.027578979664402</v>
@@ -10918,7 +10882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.627537390598705</v>
+        <v>1.574785389703164</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.826430261790728</v>
@@ -11007,7 +10971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.614721436227684</v>
+        <v>1.563270833682409</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.104732951966331</v>
@@ -11096,7 +11060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.557044366346787</v>
+        <v>1.519596909094511</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.274171959751416</v>
@@ -11185,7 +11149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550093507148618</v>
+        <v>1.516352583160675</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.252701178620901</v>
@@ -11274,7 +11238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.552312855220314</v>
+        <v>1.52120062376264</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.340012921790321</v>
@@ -11363,7 +11327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.54831672614149</v>
+        <v>1.516087246721638</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.387971189252842</v>
@@ -11452,7 +11416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55023641118963</v>
+        <v>1.510556271050873</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.342369020083434</v>
@@ -11541,7 +11505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550642631740086</v>
+        <v>1.515338541611899</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.370177178328272</v>
@@ -11630,7 +11594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558562375999888</v>
+        <v>1.522596859966258</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.277928207958857</v>
@@ -11719,7 +11683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577852263225912</v>
+        <v>1.538569489379982</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.266988265907454</v>
@@ -11808,7 +11772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586498545405739</v>
+        <v>1.549869219758659</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.469999205394906</v>
@@ -11897,7 +11861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.596688979868392</v>
+        <v>1.557488720246638</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.3654920505497</v>
@@ -11986,7 +11950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.583046616606397</v>
+        <v>1.557291892012128</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.346485034698288</v>
@@ -12075,7 +12039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.581483109430614</v>
+        <v>1.556076890629416</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.416126095701129</v>
@@ -12164,7 +12128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.581095043659824</v>
+        <v>1.558747479987365</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.279663854450285</v>
@@ -12450,7 +12414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.429627077505224</v>
+        <v>1.433484002152656</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.4365852907685</v>
@@ -12539,7 +12503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.459296927683961</v>
+        <v>1.459757254840806</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.460521965550757</v>
@@ -12628,7 +12592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483526831407357</v>
+        <v>1.481739906475841</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.539905883986444</v>
@@ -12717,7 +12681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.498202544036052</v>
+        <v>1.495080071385211</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.390257328171982</v>
@@ -12806,7 +12770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.51012778889527</v>
+        <v>1.503762600656226</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.448807912014902</v>
@@ -12895,7 +12859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.525274914224898</v>
+        <v>1.514124194826454</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.40326690844742</v>
@@ -12984,7 +12948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526337339598112</v>
+        <v>1.514299671777275</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.404605079144075</v>
@@ -13073,7 +13037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.529140501643552</v>
+        <v>1.512811660977558</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.525227357424118</v>
@@ -13162,7 +13126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538513248039748</v>
+        <v>1.51220365280681</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.245144081527734</v>
@@ -13251,7 +13215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625932900737221</v>
+        <v>1.596250596764319</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.361255657719109</v>
@@ -13340,7 +13304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.628766205396353</v>
+        <v>1.595710736217382</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.406398727249155</v>
@@ -13429,7 +13393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.618732455630248</v>
+        <v>1.580689042823454</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.403650518460629</v>
@@ -13518,7 +13482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.615872794180114</v>
+        <v>1.574721815161629</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.373387542718319</v>
@@ -13607,7 +13571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61724154924126</v>
+        <v>1.57298176838766</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.371835810941538</v>
@@ -13696,7 +13660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668060787764178</v>
+        <v>1.614870303612395</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.455873365009481</v>
@@ -13785,7 +13749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.759389143903628</v>
+        <v>1.685993829143876</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.937533775886249</v>
@@ -13874,7 +13838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.765171287752487</v>
+        <v>1.677452411554784</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.265822798172303</v>
@@ -13963,7 +13927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.757911087239139</v>
+        <v>1.663991289591759</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.831868913362087</v>
@@ -14052,7 +14016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.757988920316135</v>
+        <v>1.664050687550108</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.863685808312436</v>
@@ -14141,7 +14105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.757395495637734</v>
+        <v>1.657864641683721</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.826521119959008</v>
@@ -14230,7 +14194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.74562555386314</v>
+        <v>1.642126468975116</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.30204890657913</v>
@@ -14319,7 +14283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741921145212317</v>
+        <v>1.630706374739681</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.650734741655695</v>
@@ -14408,7 +14372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.729155383690859</v>
+        <v>1.619376434473633</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.509738070393981</v>
@@ -14497,7 +14461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.727291427329557</v>
+        <v>1.622254001896269</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.78291843916979</v>
@@ -14586,7 +14550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.725970321842489</v>
+        <v>1.624602912079871</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.782030676798831</v>
@@ -14675,7 +14639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.72540656114926</v>
+        <v>1.629847050735414</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.424160186211223</v>
@@ -14764,7 +14728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.733078431266878</v>
+        <v>1.641223384174928</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.651908655701936</v>
@@ -14853,7 +14817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732955799152253</v>
+        <v>1.641507175713614</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.592674685267246</v>
@@ -14942,7 +14906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.730109395441547</v>
+        <v>1.641673705355704</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.801882409687972</v>
@@ -15031,7 +14995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726118759794476</v>
+        <v>1.627585473418</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.013263809997176</v>
@@ -15120,7 +15084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.717757686369095</v>
+        <v>1.613162309643133</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.999930600232683</v>
@@ -15209,7 +15173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.711725733160337</v>
+        <v>1.616420187946472</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.849715492705115</v>
@@ -15298,7 +15262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719982297960803</v>
+        <v>1.626316045098487</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.659002058543237</v>
@@ -15387,7 +15351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.725450212282623</v>
+        <v>1.63245908537333</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.284975887410047</v>
@@ -15476,7 +15440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.728796103668369</v>
+        <v>1.641119502147536</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.483842420420887</v>
@@ -15565,7 +15529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.734515238259154</v>
+        <v>1.645145286118796</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.635016043402213</v>
@@ -15654,7 +15618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.684676309513458</v>
+        <v>1.61347944071913</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.472587037977426</v>
@@ -15743,7 +15707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.68737117631127</v>
+        <v>1.620082162617722</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.488677034067716</v>
@@ -15832,7 +15796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.675293057279675</v>
+        <v>1.60184856742945</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.473902897436694</v>
@@ -15921,7 +15885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.663936332861047</v>
+        <v>1.585288872899983</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.389670753390458</v>
@@ -16010,7 +15974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649369552574303</v>
+        <v>1.571826898547176</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.417949307436796</v>
@@ -16099,7 +16063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640533947326397</v>
+        <v>1.568625673701763</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.486882160322634</v>
@@ -16188,7 +16152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.649251920860145</v>
+        <v>1.570893774566904</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.478106984474992</v>
@@ -16277,7 +16241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.645077740507724</v>
+        <v>1.567536400315106</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.468147488845773</v>
@@ -16366,7 +16330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.645817252600531</v>
+        <v>1.580013142531578</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.447832560762051</v>
@@ -16455,7 +16419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.640084984077887</v>
+        <v>1.581608032272811</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.507860281790966</v>
@@ -16544,7 +16508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.65129962698119</v>
+        <v>1.59173323810829</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.492212269349022</v>
@@ -16633,7 +16597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64560207007641</v>
+        <v>1.584379223912269</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.481048218627062</v>
@@ -16722,7 +16686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.648522711650138</v>
+        <v>1.587730899479734</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.486123233620195</v>
@@ -17008,7 +16972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.563725219760657</v>
+        <v>1.597636398998026</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.75257876039379</v>
@@ -17097,7 +17061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.590593879145925</v>
+        <v>1.619918377775532</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.67349384517872</v>
@@ -17186,7 +17150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618265592411881</v>
+        <v>1.640504130715967</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.745460840875628</v>
@@ -17275,7 +17239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.627616745372527</v>
+        <v>1.647364522222356</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.61387265151209</v>
@@ -17364,7 +17328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639471877718268</v>
+        <v>1.657442680254326</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.657051474210943</v>
@@ -17453,7 +17417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.632312348027246</v>
+        <v>1.650977005956712</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.495548182150199</v>
@@ -17542,7 +17506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.622331310172735</v>
+        <v>1.63824557201412</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.603032961391378</v>
@@ -17631,7 +17595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.616346718746833</v>
+        <v>1.630042971934381</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.670064903308713</v>
@@ -17720,7 +17684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.624004179981265</v>
+        <v>1.620855374801666</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.264536752599557</v>
@@ -17809,7 +17773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.687888168364421</v>
+        <v>1.675234445494193</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.461723996435927</v>
@@ -17898,7 +17862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.673204858843487</v>
+        <v>1.647617635711536</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.543169706960526</v>
@@ -17987,7 +17951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.669251475564162</v>
+        <v>1.638187166728757</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.568689207184534</v>
@@ -18076,7 +18040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668200209664032</v>
+        <v>1.631369627876992</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.565255311016249</v>
@@ -18165,7 +18129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.66263234883361</v>
+        <v>1.622392596690234</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.409518017407935</v>
@@ -18254,7 +18218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.69376644846841</v>
+        <v>1.644426001274146</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.507627311650013</v>
@@ -18343,7 +18307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.770723305162961</v>
+        <v>1.690643217418693</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.271414794389346</v>
@@ -18432,7 +18396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763785765488276</v>
+        <v>1.674516975924196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.865029941988156</v>
@@ -18521,7 +18485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.747265965949356</v>
+        <v>1.663135096807152</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.447667490306699</v>
@@ -18610,7 +18574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.751085999198271</v>
+        <v>1.663185924672081</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.24502598013397</v>
@@ -18699,7 +18663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742805895487331</v>
+        <v>1.652341019611473</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.342632057162902</v>
@@ -18788,7 +18752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.735221734502255</v>
+        <v>1.644644011807698</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.179297059205511</v>
@@ -18877,7 +18841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.734349103432566</v>
+        <v>1.632859959489013</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.324299517133817</v>
@@ -18966,7 +18930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.727499924588867</v>
+        <v>1.628505774619194</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.86754480262476</v>
@@ -19055,7 +19019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.734506002052083</v>
+        <v>1.647841404938557</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.311069197852829</v>
@@ -19144,7 +19108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.73623508207201</v>
+        <v>1.656123437165825</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.94668329918307</v>
@@ -19233,7 +19197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.735929015080211</v>
+        <v>1.670926297802342</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.971678877221638</v>
@@ -19322,7 +19286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.744463982256675</v>
+        <v>1.685696523965314</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.206143460418794</v>
@@ -19411,7 +19375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737014985688702</v>
+        <v>1.683757408237601</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.421657767371822</v>
@@ -19500,7 +19464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.734576058916923</v>
+        <v>1.680597125604405</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.17241932615115</v>
@@ -19589,7 +19553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.729197636048224</v>
+        <v>1.66161837991067</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.169199534856656</v>
@@ -19678,7 +19642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.725196479094066</v>
+        <v>1.665837797116352</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.114277977334305</v>
@@ -19767,7 +19731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.738127549953273</v>
+        <v>1.679286947115783</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.248320044143311</v>
@@ -19856,7 +19820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.741250238246981</v>
+        <v>1.677628325034195</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.433741352792155</v>
@@ -19945,7 +19909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.746084261613994</v>
+        <v>1.68722483787914</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.940720663084229</v>
@@ -20034,7 +19998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.736061899459535</v>
+        <v>1.674324260605512</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.896701418164826</v>
@@ -20123,7 +20087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.736758810065763</v>
+        <v>1.668389064249789</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.274169099196338</v>
@@ -20212,7 +20176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.692742969841166</v>
+        <v>1.649439249011604</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.381789281090934</v>
@@ -20301,7 +20265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.696694106170272</v>
+        <v>1.646627832591366</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.425475221155012</v>
@@ -20390,7 +20354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.688082204248954</v>
+        <v>1.630720359007656</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.371620728819938</v>
@@ -20479,7 +20443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.679952907626529</v>
+        <v>1.618430310084253</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.424624521605283</v>
@@ -20568,7 +20532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696587423120668</v>
+        <v>1.629922691253455</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.465597266193178</v>
@@ -20657,7 +20621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.684121602113156</v>
+        <v>1.617676965998346</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.359368312264617</v>
@@ -20746,7 +20710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.698655321369291</v>
+        <v>1.631461374302648</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.405623807637073</v>
@@ -20835,7 +20799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711549279848049</v>
+        <v>1.650060932418555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.432515731478934</v>
@@ -20924,7 +20888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.720360545982198</v>
+        <v>1.666207849628386</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.374283577997764</v>
@@ -21013,7 +20977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.726198846383071</v>
+        <v>1.672731939756401</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.46368389106896</v>
@@ -21102,7 +21066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.721913581612759</v>
+        <v>1.671285959362554</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.44100001639184</v>
@@ -21191,7 +21155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.717332846990951</v>
+        <v>1.667600950887202</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.44962303981406</v>
@@ -21280,7 +21244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.706745433000754</v>
+        <v>1.655418183249196</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.498802993452776</v>
@@ -21566,7 +21530,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.286082705369366</v>
+        <v>1.264184608650289</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.700904577981953</v>
@@ -21655,7 +21619,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.284606359330615</v>
+        <v>1.265380570980199</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.657155628206989</v>
@@ -21744,7 +21708,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.300384773121586</v>
+        <v>1.287542203608423</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.612357844733123</v>
@@ -21833,7 +21797,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.327558011948966</v>
+        <v>1.312934240727919</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.631960129207261</v>
@@ -21922,7 +21886,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.319225555929542</v>
+        <v>1.310872383427605</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.600669855440874</v>
@@ -22011,7 +21975,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.32522308043043</v>
+        <v>1.318660086126843</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.599092491453897</v>
@@ -22100,7 +22064,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.331350148630525</v>
+        <v>1.327752376746402</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.619909165228402</v>
@@ -22189,7 +22153,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.332024423684566</v>
+        <v>1.329778663135631</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.617773055991479</v>
@@ -22278,7 +22242,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.348666224737754</v>
+        <v>1.344386096877293</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.741630390418046</v>
@@ -22367,7 +22331,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.483415626056527</v>
+        <v>1.497385750399129</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.823221652981491</v>
@@ -22456,7 +22420,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501480583615113</v>
+        <v>1.509332287444323</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.018059615108554</v>
@@ -22545,7 +22509,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.502538766548595</v>
+        <v>1.512110956127455</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.003313782963475</v>
@@ -22634,7 +22598,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497867070776415</v>
+        <v>1.503676363810503</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.988610171622477</v>
@@ -22723,7 +22687,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.492802909950616</v>
+        <v>1.497752453737856</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.960296425997326</v>
@@ -22812,7 +22776,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55052292801628</v>
+        <v>1.545726761306715</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.839317369606287</v>
@@ -22901,7 +22865,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668264297368519</v>
+        <v>1.655769480871896</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.734322273186978</v>
@@ -22990,7 +22954,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676298770594923</v>
+        <v>1.646489011670177</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.814821037993188</v>
@@ -23079,7 +23043,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.568128508788886</v>
+        <v>1.554225198575109</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.837979459745568</v>
@@ -23168,7 +23132,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555049376141209</v>
+        <v>1.540001909318871</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.862924825158919</v>
@@ -23257,7 +23221,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.555307866960607</v>
+        <v>1.54169684400312</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.814052789762654</v>
@@ -23346,7 +23310,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548072613660582</v>
+        <v>1.531253626789238</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.797107451537735</v>
@@ -23435,7 +23399,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548578771720012</v>
+        <v>1.530949492222974</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.809342557531673</v>
@@ -23524,7 +23488,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.53397450602627</v>
+        <v>1.507076890224927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.803645887412137</v>
@@ -23613,7 +23577,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523401494111253</v>
+        <v>1.506209980306381</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.807571649437202</v>
@@ -23702,7 +23666,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.517970651637151</v>
+        <v>1.497992433887721</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.832606965801804</v>
@@ -23791,7 +23755,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.488691734334796</v>
+        <v>1.472030940610642</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.855085361780861</v>
@@ -23880,7 +23844,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.497894286052783</v>
+        <v>1.481468004671119</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.842931502366768</v>
@@ -23969,7 +23933,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.484819182938903</v>
+        <v>1.472119662742774</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.873041342447092</v>
@@ -24058,7 +24022,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.494765535157184</v>
+        <v>1.482830859218075</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.86938273443762</v>
@@ -24147,7 +24111,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.494914136574057</v>
+        <v>1.484446350198078</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.879672495269818</v>
@@ -24236,7 +24200,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.498435717723351</v>
+        <v>1.48869891182871</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.863933165539971</v>
@@ -24325,7 +24289,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.555290333963477</v>
+        <v>1.544121056434364</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.765528034657941</v>
@@ -24414,7 +24378,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.579442034712118</v>
+        <v>1.573709710412728</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.315711341338648</v>
@@ -24503,7 +24467,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.597065183884624</v>
+        <v>1.595438482263328</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.295592453513417</v>
@@ -24592,7 +24556,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.587731684939029</v>
+        <v>1.585330436564782</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.340263839730589</v>
@@ -24681,7 +24645,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580340394796778</v>
+        <v>1.580122951463152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.285578776014382</v>
@@ -24770,7 +24734,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.393683629667494</v>
+        <v>1.397966708831538</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.561682039593858</v>
@@ -24859,7 +24823,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.389245946154893</v>
+        <v>1.397200049595177</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.550265582141632</v>
@@ -24948,7 +24912,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.392204897364254</v>
+        <v>1.3993792547024</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.551808739429535</v>
@@ -25037,7 +25001,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.390883661753206</v>
+        <v>1.398045877127931</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.533936400187377</v>
@@ -25126,7 +25090,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.411291075549857</v>
+        <v>1.421687859718115</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.55047464086153</v>
@@ -25215,7 +25179,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.384790112439871</v>
+        <v>1.397415765985048</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.548473986704629</v>
@@ -25304,7 +25268,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.403913777176275</v>
+        <v>1.419146298938243</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.546881041090133</v>
@@ -25393,7 +25357,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.407759879538721</v>
+        <v>1.422719090571217</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.551408719301906</v>
@@ -25482,7 +25446,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.407842896921474</v>
+        <v>1.42595145348863</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.548845238633366</v>
@@ -25571,7 +25535,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.381819378021537</v>
+        <v>1.393777918260205</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.570323322537207</v>
@@ -25660,7 +25624,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.383979002766226</v>
+        <v>1.395126018028066</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.574704711644892</v>
@@ -25749,7 +25713,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.386992226603067</v>
+        <v>1.397887829022049</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.581466837806302</v>
@@ -25838,7 +25802,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.385432837534647</v>
+        <v>1.394279608713888</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.57981459237137</v>
@@ -26124,7 +26088,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.216797124621875</v>
+        <v>1.216646741065125</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.989938091250429</v>
@@ -26213,7 +26177,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.233050039893129</v>
+        <v>1.237186086830683</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.979734329222232</v>
@@ -26302,7 +26266,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.262720040956961</v>
+        <v>1.269655267736031</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.808575577061089</v>
@@ -26391,7 +26355,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.272624809222442</v>
+        <v>1.283628053102513</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.846043148838959</v>
@@ -26480,7 +26444,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.281828379323118</v>
+        <v>1.295244150444483</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.818392094994651</v>
@@ -26569,7 +26533,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.272519391412195</v>
+        <v>1.282725494918781</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.837044400903397</v>
@@ -26658,7 +26622,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.26256000800782</v>
+        <v>1.270219863031594</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.824326929782023</v>
@@ -26747,7 +26711,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.255108148966523</v>
+        <v>1.261109559350162</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.81502935459121</v>
@@ -26836,7 +26800,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.263282122384385</v>
+        <v>1.268469658289512</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.748527907488122</v>
@@ -26925,7 +26889,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.375459475237772</v>
+        <v>1.389731853730087</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.667489266327999</v>
@@ -27014,7 +26978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.365860473735676</v>
+        <v>1.376766569120272</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.74980734313828</v>
@@ -27103,7 +27067,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.357696929618408</v>
+        <v>1.368239969314119</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.752102617451311</v>
@@ -27192,7 +27156,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.348047259184803</v>
+        <v>1.355255651924821</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.740691981541258</v>
@@ -27281,7 +27245,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.350710721120303</v>
+        <v>1.355270393326907</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.721164729073032</v>
@@ -27370,7 +27334,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.434112191414548</v>
+        <v>1.4457198215027</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.636483596873026</v>
@@ -27459,7 +27423,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.718905062400597</v>
+        <v>1.718078788693544</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.46732325812695</v>
@@ -27548,7 +27512,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.715088935290246</v>
+        <v>1.701535253821158</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.10057595048105</v>
@@ -27637,7 +27601,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.59482886535059</v>
+        <v>1.605703207412113</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.962182577165756</v>
@@ -27726,7 +27690,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593984661236458</v>
+        <v>1.601991977568954</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.951560203896528</v>
@@ -27815,7 +27779,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.590928151434097</v>
+        <v>1.596110831556504</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.949414493448091</v>
@@ -27904,7 +27868,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.596975854859927</v>
+        <v>1.607395397677333</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.959260234670698</v>
@@ -27993,7 +27957,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.616862304383572</v>
+        <v>1.622021371073554</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.940728218773713</v>
@@ -28082,7 +28046,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.595073303682204</v>
+        <v>1.598197787864134</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.977311033021909</v>
@@ -28171,7 +28135,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608953722652034</v>
+        <v>1.618241263086943</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.974703154208756</v>
@@ -28260,7 +28224,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.62750665856765</v>
+        <v>1.63172694403964</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.997984726144322</v>
@@ -28349,7 +28313,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.656841177837783</v>
+        <v>1.658336645149183</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.974615777479557</v>
@@ -28438,7 +28402,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.630758449048437</v>
+        <v>1.643046742067386</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.957567521343693</v>
@@ -28527,7 +28491,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.631636752126242</v>
+        <v>1.645836071739705</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.966804449866565</v>
@@ -28616,7 +28580,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.625736966763676</v>
+        <v>1.634588825865378</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.978647881290973</v>
@@ -28705,7 +28669,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601814499471012</v>
+        <v>1.612043048213039</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.969602632274619</v>
@@ -28794,7 +28758,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.60041421123978</v>
+        <v>1.609960408244254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.990324276754027</v>
@@ -28883,7 +28847,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.647484051957851</v>
+        <v>1.660946038433972</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.812873260081003</v>
@@ -28972,7 +28936,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.727965213322892</v>
+        <v>1.728798175682706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.616137148473638</v>
@@ -29061,7 +29025,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72271227258071</v>
+        <v>1.724429993288302</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.687160044736919</v>
@@ -29150,7 +29114,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679354864225614</v>
+        <v>1.685241959616393</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.655747644156934</v>
@@ -29239,7 +29203,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668197904165185</v>
+        <v>1.676253871002018</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.692344846911146</v>
@@ -29328,7 +29292,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.546149150619416</v>
+        <v>1.554353728880858</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.922293535978757</v>
@@ -29417,7 +29381,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.553482922662058</v>
+        <v>1.567005669910158</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.924081301264589</v>
@@ -29506,7 +29470,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551247833369683</v>
+        <v>1.561700235375471</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.924171586451171</v>
@@ -29595,7 +29559,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.548194171063662</v>
+        <v>1.559594661527135</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.934686069597585</v>
@@ -29684,7 +29648,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.533159302573913</v>
+        <v>1.544868545599853</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.855205219574986</v>
@@ -29773,7 +29737,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.539551629686374</v>
+        <v>1.546311514938304</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.907541421555502</v>
@@ -29862,7 +29826,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.541405882933627</v>
+        <v>1.550339135084156</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.930889227104423</v>
@@ -29951,7 +29915,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.550747987547781</v>
+        <v>1.56099278437087</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.912358136468752</v>
@@ -30040,7 +30004,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.555028682268079</v>
+        <v>1.564315504112851</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.892151126631918</v>
@@ -30129,7 +30093,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528648451264518</v>
+        <v>1.544504524676348</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.946312936195646</v>
@@ -30218,7 +30182,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.53006863500551</v>
+        <v>1.545701745977976</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.939308589012557</v>
@@ -30307,7 +30271,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52269209929533</v>
+        <v>1.538715898920213</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.92791740565617</v>
@@ -30396,7 +30360,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.523430298103289</v>
+        <v>1.538957158629696</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.94544372062122</v>
